--- a/2021/上机/CS006001X-07上机记录.xlsx
+++ b/2021/上机/CS006001X-07上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B014E-6C14-4CDB-B4FF-54D264C304E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF4B37-7264-4E07-AB41-27B1CDE00CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
   <si>
     <t>学号</t>
   </si>
@@ -259,6 +259,38 @@
   </si>
   <si>
     <t>2001-2022学年第一学期 CS006001X-07上机记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至10.24日500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至10.24日580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29--19:25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日650</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日625</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,13 +394,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -701,74 +736,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
@@ -780,13 +815,13 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
@@ -798,13 +833,13 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
@@ -816,13 +851,13 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2"/>
@@ -834,13 +869,13 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
@@ -852,13 +887,13 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2"/>
@@ -870,13 +905,13 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2"/>
@@ -888,13 +923,13 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2"/>
@@ -906,31 +941,33 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="22.65" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
@@ -942,31 +979,33 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="22.65" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
@@ -978,13 +1017,13 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2"/>
@@ -996,13 +1035,13 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2"/>
@@ -1014,17 +1053,19 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -1032,13 +1073,13 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2"/>
@@ -1050,13 +1091,13 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2"/>
@@ -1068,13 +1109,13 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2"/>
@@ -1086,13 +1127,13 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1106,17 +1147,19 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
@@ -1124,13 +1167,13 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2"/>
@@ -1142,17 +1185,19 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -1160,13 +1205,13 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="2"/>
@@ -1178,13 +1223,13 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="2"/>
@@ -1196,49 +1241,53 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="22.65" customHeight="1">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="22.65" customHeight="1">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="2"/>
@@ -1250,13 +1299,13 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="2"/>
@@ -1268,13 +1317,13 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="2"/>
@@ -1286,22 +1335,35 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1">
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:H2"/>
@@ -1337,74 +1399,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
@@ -1416,13 +1478,13 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
@@ -1434,13 +1496,13 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
@@ -1452,13 +1514,13 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2"/>
@@ -1470,13 +1532,13 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
@@ -1488,13 +1550,13 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2"/>
@@ -1506,13 +1568,13 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2"/>
@@ -1524,13 +1586,13 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2"/>
@@ -1542,13 +1604,13 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2"/>
@@ -1560,13 +1622,13 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
@@ -1578,13 +1640,13 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2"/>
@@ -1596,13 +1658,13 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
@@ -1614,13 +1676,13 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2"/>
@@ -1632,13 +1694,13 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2"/>
@@ -1650,13 +1712,13 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2"/>
@@ -1668,13 +1730,13 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2"/>
@@ -1686,13 +1748,13 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2"/>
@@ -1704,13 +1766,13 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2"/>
@@ -1722,13 +1784,13 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1742,13 +1804,13 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2"/>
@@ -1760,13 +1822,13 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2"/>
@@ -1778,13 +1840,13 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2"/>
@@ -1796,13 +1858,13 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="2"/>
@@ -1814,13 +1876,13 @@
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="2"/>
@@ -1832,13 +1894,13 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2"/>
@@ -1850,13 +1912,13 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2"/>
@@ -1868,13 +1930,13 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="2"/>
@@ -1886,13 +1948,13 @@
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="2"/>
@@ -1904,13 +1966,13 @@
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="2"/>
@@ -1922,13 +1984,13 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="2"/>

--- a/2021/上机/CS006001X-07上机记录.xlsx
+++ b/2021/上机/CS006001X-07上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF4B37-7264-4E07-AB41-27B1CDE00CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB185E5E-B2A5-4957-8001-2E091732C174}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t>学号</t>
   </si>
@@ -278,19 +278,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.29日675</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.29日650</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.29日625</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.29日600</t>
+    <t>11.5日675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5日11:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日600
+11.5日未变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日650
+11.5日未变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29日675
+11.5日未变</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -953,7 +968,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -991,9 +1006,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="22.65" customHeight="1">
       <c r="A16" s="1">
@@ -1253,7 +1270,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1273,7 +1290,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1329,7 +1346,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="22.65" customHeight="1">
       <c r="A34" s="1">
@@ -1362,6 +1381,11 @@
     <row r="36" spans="1:8" ht="14.25" customHeight="1">
       <c r="G36" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="G37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1386,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07603CD-049B-4402-8A9C-2170EB5E432E}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1793,9 +1817,7 @@
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>

--- a/2021/上机/CS006001X-07上机记录.xlsx
+++ b/2021/上机/CS006001X-07上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB185E5E-B2A5-4957-8001-2E091732C174}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25BF594-220C-4D1D-BE1A-0669E924B538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -750,7 +750,7 @@
     <col min="5" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -772,7 +772,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -808,7 +808,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="22.65" customHeight="1">
+    <row r="5" spans="1:9" ht="22.65" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="22.65" customHeight="1">
+    <row r="6" spans="1:9" ht="22.65" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="22.65" customHeight="1">
+    <row r="7" spans="1:9" ht="22.65" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="22.65" customHeight="1">
+    <row r="8" spans="1:9" ht="22.65" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="22.65" customHeight="1">
+    <row r="9" spans="1:9" ht="22.65" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="22.65" customHeight="1">
+    <row r="10" spans="1:9" ht="22.65" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="22.65" customHeight="1">
+    <row r="11" spans="1:9" ht="22.65" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.65" customHeight="1">
+    <row r="12" spans="1:9" ht="22.65" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="22.65" customHeight="1">
+    <row r="13" spans="1:9" ht="22.65" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -971,8 +971,11 @@
         <v>86</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I13">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.65" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -990,7 +993,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="22.65" customHeight="1">
+    <row r="15" spans="1:9" ht="22.65" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1011,8 +1014,11 @@
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I15">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.65" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1030,7 +1036,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="22.65" customHeight="1">
+    <row r="17" spans="1:9" ht="22.65" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1048,7 +1054,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="22.65" customHeight="1">
+    <row r="18" spans="1:9" ht="22.65" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1066,7 +1072,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="22.65" customHeight="1">
+    <row r="19" spans="1:9" ht="22.65" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1085,8 +1091,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I19">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.65" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1104,7 +1113,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="22.65" customHeight="1">
+    <row r="21" spans="1:9" ht="22.65" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1122,7 +1131,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="22.65" customHeight="1">
+    <row r="22" spans="1:9" ht="22.65" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1140,7 +1149,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="22.65" customHeight="1">
+    <row r="23" spans="1:9" ht="22.65" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1159,8 +1168,11 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I23">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="22.65" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1179,8 +1191,11 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I24">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.65" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1198,7 +1213,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="22.65" customHeight="1">
+    <row r="26" spans="1:9" ht="22.65" customHeight="1">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1217,8 +1232,11 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22.65" customHeight="1">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1236,7 +1254,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="22.65" customHeight="1">
+    <row r="28" spans="1:9" ht="22.65" customHeight="1">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1254,7 +1272,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="22.65" customHeight="1">
+    <row r="29" spans="1:9" ht="22.65" customHeight="1">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1273,8 +1291,11 @@
         <v>84</v>
       </c>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.65" customHeight="1">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1293,8 +1314,11 @@
         <v>80</v>
       </c>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I30">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22.65" customHeight="1">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1312,7 +1336,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="22.65" customHeight="1">
+    <row r="32" spans="1:9" ht="22.65" customHeight="1">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1330,7 +1354,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="22.65" customHeight="1">
+    <row r="33" spans="1:9" ht="22.65" customHeight="1">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1349,8 +1373,11 @@
       <c r="H33" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="22.65" customHeight="1">
+      <c r="I33">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="22.65" customHeight="1">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1369,8 +1396,11 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I34">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="F35" t="s">
         <v>77</v>
       </c>
@@ -1378,12 +1408,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="G36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="G37" t="s">
         <v>83</v>
       </c>
@@ -1410,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07603CD-049B-4402-8A9C-2170EB5E432E}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
